--- a/assets/Formato/LAYOUT_JUSTIFICACION.xlsx
+++ b/assets/Formato/LAYOUT_JUSTIFICACION.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\system-sirh\assets\Formato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sirh\assets\Formato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BADE7BD-3E2A-4FDA-89F2-7B4E9FB5C217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17CB908-ED81-4B9F-89AC-59916EC3EC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CDFFC4D4-785C-409B-827D-72446BEA2B34}"/>
   </bookViews>
@@ -36,31 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>CURP*</t>
+    <t>RFC*</t>
   </si>
   <si>
-    <t>FECHA INICIO*</t>
+    <t>FECHA (YYYY/MM/DD) *</t>
   </si>
   <si>
-    <t>FECHA FIN*</t>
+    <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>FECHA REGISTRO*</t>
+    <t>TIPO</t>
   </si>
   <si>
-    <t>CODIGO CERTIFICACION*</t>
-  </si>
-  <si>
-    <t>OBSERVACIONES*</t>
+    <t>TIPO DE FALTA/RETARDO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +75,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,9 +114,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33197F3C-A688-4A19-9EEC-36F4DBAF7D57}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +465,9 @@
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,9 +483,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
